--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>f</t>
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
 </sst>
 </file>
@@ -353,30 +356,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1</v>
       </c>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>f</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>okay</t>
+  </si>
+  <si>
+    <t>hellow</t>
   </si>
 </sst>
 </file>
@@ -359,7 +362,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -375,6 +378,9 @@
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
